--- a/Main/Antwoordenblad_MT1463_1466_V01.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V01.xlsx
@@ -2170,7 +2170,9 @@
           <t>[Nm]</t>
         </is>
       </c>
-      <c r="D92" s="7" t="n"/>
+      <c r="D92" s="7" t="n">
+        <v>130946993.5346124</v>
+      </c>
     </row>
     <row r="93" ht="31.8" customHeight="1">
       <c r="B93" s="16">
@@ -2182,7 +2184,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D93" s="7" t="n"/>
+      <c r="D93" s="7" t="n">
+        <v>16.52</v>
+      </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
       <c r="B94" s="15" t="inlineStr">
@@ -2195,7 +2199,9 @@
           <t>[N/m2]</t>
         </is>
       </c>
-      <c r="D94" s="7" t="n"/>
+      <c r="D94" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" ht="36" customHeight="1">
       <c r="B95" s="16">
@@ -2207,7 +2213,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D95" s="7" t="n"/>
+      <c r="D95" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" ht="14.4" customHeight="1">
       <c r="B96" s="15" t="inlineStr">
@@ -2220,7 +2228,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D96" s="7" t="n"/>
+      <c r="D96" s="7" t="n">
+        <v>-0.004299181521585461</v>
+      </c>
     </row>
     <row r="97" ht="39.6" customHeight="1">
       <c r="B97" s="16">
@@ -2232,7 +2242,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D97" s="7" t="n"/>
+      <c r="D97" s="7" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="98" ht="18" customHeight="1">
       <c r="B98" s="9" t="inlineStr">

--- a/Main/Antwoordenblad_MT1463_1466_V01.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V01.xlsx
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>130946993.5346124</v>
+        <v>133611299.751327</v>
       </c>
     </row>
     <row r="93" ht="31.8" customHeight="1">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>16.52</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>-0.004299181521585461</v>
+        <v>-0.01602711452864105</v>
       </c>
     </row>
     <row r="97" ht="39.6" customHeight="1">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="D97" s="7" t="n">
-        <v>-9</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V01.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V01.xlsx
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2579,9 +2579,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>